--- a/SDET_9_PRoject/testData/TestData.xlsx
+++ b/SDET_9_PRoject/testData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BD1E87FA-CAC6-41E8-B42E-D0FC79FEA9F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
+    <workbookView xWindow="3276" yWindow="1332" windowWidth="14832" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Org" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A1:F9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -437,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,23 +758,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -805,7 +806,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -815,7 +816,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -825,7 +826,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +850,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -873,7 +874,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -883,7 +884,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +900,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -915,7 +916,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -925,7 +926,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -935,309 +936,309 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1245,23 +1246,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1307,19 +1308,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="130" workbookViewId="0">
       <selection activeCell="C30" sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1649,85 +1650,85 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1735,16 +1736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -2300,24 +2301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2333,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2348,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2356,7 +2357,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2392,7 +2393,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
